--- a/public/samples/sample_withdrawals.xlsx
+++ b/public/samples/sample_withdrawals.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Withdrawals" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -424,7 +424,7 @@
         <v>15/12/2024</v>
       </c>
       <c r="C2" t="str">
-        <v>withdrawal</v>
+        <v>withdraw</v>
       </c>
       <c r="D2">
         <v>2000</v>
@@ -438,7 +438,7 @@
         <v>16/12/2024</v>
       </c>
       <c r="C3" t="str">
-        <v>withdrawal</v>
+        <v>withdraw</v>
       </c>
       <c r="D3">
         <v>1500</v>
@@ -452,7 +452,7 @@
         <v>17/12/2024</v>
       </c>
       <c r="C4" t="str">
-        <v>withdrawal</v>
+        <v>withdraw</v>
       </c>
       <c r="D4">
         <v>3000</v>
@@ -466,7 +466,7 @@
         <v>18/12/2024</v>
       </c>
       <c r="C5" t="str">
-        <v>withdrawal</v>
+        <v>withdraw</v>
       </c>
       <c r="D5">
         <v>2500</v>
